--- a/excel_files/scheduling.xlsx
+++ b/excel_files/scheduling.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
-    <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="גיליון2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="גיליון3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,21 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -348,86 +343,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>597041</v>
+      </c>
+      <c r="B1" t="n">
+        <v>748836</v>
+      </c>
+      <c r="C1" t="n">
+        <v>330228</v>
+      </c>
+      <c r="D1" t="n">
+        <v>151077</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12346</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12348</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12398</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12399</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12347</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12365</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12346</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12348</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12333</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12121</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>